--- a/aaa_results/scores.xlsx
+++ b/aaa_results/scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3527880634958974</v>
+        <v>0.3533884410795726</v>
       </c>
       <c r="D2" t="n">
         <v>0.1262135922330097</v>
@@ -559,13 +559,13 @@
         <v>0.2444444444444444</v>
       </c>
       <c r="F2" t="n">
-        <v>0.505182324122265</v>
+        <v>0.5081026300674081</v>
       </c>
       <c r="G2" t="n">
         <v>0.03448275862068965</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2338218580220735</v>
+        <v>0.2335445195714014</v>
       </c>
       <c r="I2" t="n">
         <v>0.1870503597122302</v>
@@ -589,25 +589,25 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4218270448183408</v>
+        <v>0.4219791805187241</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3857818474715655</v>
+        <v>0.3888954350691777</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3416727199122509</v>
+        <v>0.3440001422969025</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2389174921176199</v>
+        <v>0.2375092173621585</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3464823073821509</v>
+        <v>0.3472418608536824</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3484202444590392</v>
+        <v>0.3509142107197201</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2621237815683738</v>
+        <v>0.2620835289948086</v>
       </c>
     </row>
     <row r="3">
@@ -616,68 +616,68 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>unifiedQA_base_2_hist_pred</t>
+          <t>gpt_pred_full_context_example</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.465061020845677</v>
+        <v>0.2360587076670593</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2014563106796116</v>
+        <v>0.05097087378640777</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2611111111111111</v>
+        <v>0.1055555555555556</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5520889521160003</v>
+        <v>0.3715884194846192</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1551724137931035</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3965551159308996</v>
+        <v>0.1291065818780604</v>
       </c>
       <c r="I3" t="n">
-        <v>0.223021582733813</v>
+        <v>0.07913669064748201</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="K3" t="n">
-        <v>0.169811320754717</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5333512211012279</v>
+        <v>0.2531834327793917</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4654695295342197</v>
+        <v>0.2512023923030074</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4055330991682547</v>
+        <v>0.2449902550975329</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3071763458623041</v>
+        <v>0.1626811898673554</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3973771740926947</v>
+        <v>0.5731381460874136</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3170449858259213</v>
+        <v>0.2041518553792704</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4570151026864582</v>
+        <v>0.1628795699821715</v>
       </c>
     </row>
     <row r="4">
@@ -686,68 +686,68 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FiD_context_unstruct</t>
+          <t>unifiedQA_base_2_hist_pred</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.258609941866191</v>
+        <v>0.4649179638892231</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0825242718446602</v>
+        <v>0.2014563106796116</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.2611111111111111</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2959962163278265</v>
+        <v>0.5525951151301935</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0603448275862069</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2297781224833945</v>
+        <v>0.3962009763594561</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1294964028776978</v>
+        <v>0.223021582733813</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.169811320754717</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07777777777777778</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3180184651197885</v>
+        <v>0.5345451767405247</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3140554166033025</v>
+        <v>0.4635682599608313</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1568457523394581</v>
+        <v>0.4109906728740387</v>
       </c>
       <c r="S4" t="n">
-        <v>0.197193701654486</v>
+        <v>0.3067015130048811</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3166745405090128</v>
+        <v>0.397318660695822</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1522743794403001</v>
+        <v>0.3208203510041078</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1900138167939248</v>
+        <v>0.4574689698049167</v>
       </c>
     </row>
     <row r="5">
@@ -756,38 +756,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>unifiedQA_base_context_full_pred</t>
+          <t>FiD_context_unstruct</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.345267558900441</v>
+        <v>0.259076513538447</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1140776699029126</v>
+        <v>0.0825242718446602</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4996821663927941</v>
+        <v>0.2981950253341373</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02155172413793104</v>
+        <v>0.0603448275862069</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2255786494729309</v>
+        <v>0.2291819082450644</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1366906474820144</v>
+        <v>0.1294964028776978</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1847826086956522</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1132075471698113</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -796,28 +796,28 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3953164435580574</v>
+        <v>0.319568106718508</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3884975892528499</v>
+        <v>0.3133278455497739</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3616481400409631</v>
+        <v>0.157126783667258</v>
       </c>
       <c r="S5" t="n">
-        <v>0.256585944795335</v>
+        <v>0.193890806586885</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3762016484645512</v>
+        <v>0.3095603933371919</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2593746651774411</v>
+        <v>0.1524676495681173</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2526578859711852</v>
+        <v>0.1920832320424137</v>
       </c>
     </row>
     <row r="6">
@@ -826,68 +826,68 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>t5_base_context_select_pred</t>
+          <t>unifiedQA_base_context_full_pred</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4742608175053673</v>
+        <v>0.3454235363173907</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2233009708737864</v>
+        <v>0.1140776699029126</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2611111111111111</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5423226837050413</v>
+        <v>0.5009350234066223</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1939655172413793</v>
+        <v>0.02155172413793104</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4207841467554909</v>
+        <v>0.226566114493249</v>
       </c>
       <c r="I6" t="n">
-        <v>0.237410071942446</v>
+        <v>0.1366906474820144</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1886792452830189</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2444444444444444</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P6" t="n">
-        <v>0.528465445656698</v>
+        <v>0.3938370041484202</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.5194327237430234</v>
+        <v>0.3892536950940835</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4575716176288771</v>
+        <v>0.3666893620644982</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3658902528571646</v>
+        <v>0.2551451790739661</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3906408697735438</v>
+        <v>0.3754890294261403</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3506399156928333</v>
+        <v>0.2635143584256767</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4255629726972139</v>
+        <v>0.2503029156139003</v>
       </c>
     </row>
     <row r="7">
@@ -896,68 +896,68 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FiD_context_struct</t>
+          <t>t5_base_context_select_pred</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3183967181945689</v>
+        <v>0.4748912623337589</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1140776699029126</v>
+        <v>0.2233009708737864</v>
       </c>
       <c r="E7" t="n">
-        <v>0.15</v>
+        <v>0.2611111111111111</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3986206564682477</v>
+        <v>0.5447975456780161</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08620689655172414</v>
+        <v>0.1939655172413793</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2556447955455735</v>
+        <v>0.4204086263615739</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1870503597122302</v>
+        <v>0.237410071942446</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09782608695652174</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07547169811320754</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3982901260754628</v>
+        <v>0.529125589477367</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3693342789608908</v>
+        <v>0.5211167621234305</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2649137978913386</v>
+        <v>0.4611415974788398</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2307939613845943</v>
+        <v>0.3603521070432835</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5445956848119184</v>
+        <v>0.3887290496709815</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2429692618634033</v>
+        <v>0.3532655030607236</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1774842977148154</v>
+        <v>0.4241821533031468</v>
       </c>
     </row>
     <row r="8">
@@ -966,68 +966,68 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>unifiedQA_small_context_full_pred</t>
+          <t>FiD_context_struct</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2866353043542088</v>
+        <v>0.3190461561557432</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09223300970873786</v>
+        <v>0.1140776699029126</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1444444444444444</v>
+        <v>0.15</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4070776551277466</v>
+        <v>0.3995283133933768</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05172413793103448</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1942526749818145</v>
+        <v>0.255614819843629</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1294964028776978</v>
+        <v>0.1870503597122302</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.09782608695652174</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05660377358490566</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3512823281306219</v>
+        <v>0.4003683536590763</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3228483763021</v>
+        <v>0.3711220134122554</v>
       </c>
       <c r="R8" t="n">
-        <v>0.248703456602695</v>
+        <v>0.270581382061246</v>
       </c>
       <c r="S8" t="n">
-        <v>0.207416466028998</v>
+        <v>0.2336945531438817</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3679176082412227</v>
+        <v>0.5391088107417397</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2213811697477759</v>
+        <v>0.2411437894541513</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2102410445010101</v>
+        <v>0.177768623190787</v>
       </c>
     </row>
     <row r="9">
@@ -1036,68 +1036,68 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>unifiedQA_base_no_hist_pred</t>
+          <t>unifiedQA_small_context_full_pred</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4762688630927095</v>
+        <v>0.2879433760120964</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2087378640776699</v>
+        <v>0.09223300970873786</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5540872419264453</v>
+        <v>0.4102539390688199</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1508620689655172</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4126029654109149</v>
+        <v>0.1929803795807633</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2302158273381295</v>
+        <v>0.1294964028776978</v>
       </c>
       <c r="J9" t="n">
-        <v>0.25</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1509433962264151</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5560147611363725</v>
+        <v>0.3520355902868611</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5058867003338057</v>
+        <v>0.3230324679497787</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4022435376003248</v>
+        <v>0.2493566249631651</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3991470926948868</v>
+        <v>0.2092546473844428</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3633660758204585</v>
+        <v>0.3611270739400514</v>
       </c>
       <c r="U9" t="n">
-        <v>0.3443069119328618</v>
+        <v>0.2201455962625552</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4292775309535641</v>
+        <v>0.2090406919602751</v>
       </c>
     </row>
     <row r="10">
@@ -1106,68 +1106,68 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>unifiedQA_base_context_select_pred</t>
+          <t>gpt_pred_selected_context</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.4626214140173796</v>
+        <v>0.2903474464782937</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1893203883495146</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2444444444444444</v>
+        <v>0.1277777777777778</v>
       </c>
       <c r="F10" t="n">
-        <v>0.538543076346921</v>
+        <v>0.3949338996296768</v>
       </c>
       <c r="G10" t="n">
-        <v>0.146551724137931</v>
+        <v>0.03879310344827586</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4009480231669439</v>
+        <v>0.2085886881556483</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2086330935251799</v>
+        <v>0.07913669064748201</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2282608695652174</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1320754716981132</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="L10" t="n">
         <v>0.08333333333333333</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2111111111111111</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5284273555906684</v>
+        <v>0.3087677896062104</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4902480063555199</v>
+        <v>0.2587725643251132</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4103045557388578</v>
+        <v>0.2725950152832441</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3468414347090817</v>
+        <v>0.2569938492568448</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3756599476134344</v>
+        <v>0.7473399906398321</v>
       </c>
       <c r="U10" t="n">
-        <v>0.3345730625036845</v>
+        <v>0.2407779541895421</v>
       </c>
       <c r="V10" t="n">
-        <v>0.414995106154919</v>
+        <v>0.2313693433418256</v>
       </c>
     </row>
     <row r="11">
@@ -1176,68 +1176,68 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>t5_large_context_full_pred</t>
+          <t>unifiedQA_base_no_hist_pred</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.4147411776047095</v>
+        <v>0.4764377453777123</v>
       </c>
       <c r="D11" t="n">
-        <v>0.162621359223301</v>
+        <v>0.2087378640776699</v>
       </c>
       <c r="E11" t="n">
+        <v>0.2833333333333333</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.5584113991746593</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1508620689655172</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.4126580071601478</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.2302158273381295</v>
+      </c>
+      <c r="J11" t="n">
         <v>0.25</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.5679182495313353</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.09482758620689655</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.2951362081072521</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.223021582733813</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.2173913043478261</v>
-      </c>
       <c r="K11" t="n">
-        <v>0.1132075471698113</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4654504272744189</v>
+        <v>0.5601522333087521</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4634590844481675</v>
+        <v>0.5051787006227806</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3730445485862485</v>
+        <v>0.4079864423805434</v>
       </c>
       <c r="S11" t="n">
-        <v>0.259982047528403</v>
+        <v>0.4001950459671048</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4141234611747334</v>
+        <v>0.3654697833516115</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3794897788513869</v>
+        <v>0.3463001879129096</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3536043345592931</v>
+        <v>0.4308530218225893</v>
       </c>
     </row>
     <row r="12">
@@ -1246,68 +1246,68 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>t5_small_context_full_pred</t>
+          <t>unifiedQA_base_context_select_pred</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2981606368166008</v>
+        <v>0.461446636805747</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0970873786407767</v>
+        <v>0.1893203883495146</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1777777777777778</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3991195584604753</v>
+        <v>0.5401600787513487</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2182185450089548</v>
+        <v>0.4019876389797862</v>
       </c>
       <c r="I12" t="n">
-        <v>0.158273381294964</v>
+        <v>0.2086330935251799</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1195652173913044</v>
+        <v>0.2282608695652174</v>
       </c>
       <c r="K12" t="n">
-        <v>0.07547169811320754</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="O12" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="P12" t="n">
-        <v>0.3731015558556586</v>
+        <v>0.532404699252369</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.3466215068908071</v>
+        <v>0.4866446892832381</v>
       </c>
       <c r="R12" t="n">
-        <v>0.229557487748501</v>
+        <v>0.4118958463522113</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1980632961379866</v>
+        <v>0.3466778931852461</v>
       </c>
       <c r="T12" t="n">
-        <v>0.293922171908624</v>
+        <v>0.3734952265312931</v>
       </c>
       <c r="U12" t="n">
-        <v>0.2032729939679516</v>
+        <v>0.3368836307233436</v>
       </c>
       <c r="V12" t="n">
-        <v>0.2015529172971665</v>
+        <v>0.4184786515520986</v>
       </c>
     </row>
     <row r="13">
@@ -1316,68 +1316,68 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>unifiedQA_base_6_hist_pred</t>
+          <t>unifiedQA_base_context_SBERT</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.4725381904376136</v>
+        <v>0.2183533085422</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2063106796116505</v>
+        <v>0.03640776699029126</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5414413823946215</v>
+        <v>0.295348014470853</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1724137931034483</v>
+        <v>0.01293103448275862</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4166023792974614</v>
+        <v>0.1563917311337109</v>
       </c>
       <c r="I13" t="n">
-        <v>0.223021582733813</v>
+        <v>0.05755395683453238</v>
       </c>
       <c r="J13" t="n">
-        <v>0.25</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="K13" t="n">
-        <v>0.169811320754717</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2045454545454546</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2111111111111111</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P13" t="n">
-        <v>0.534122121841796</v>
+        <v>0.2482382646580094</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4801411780447896</v>
+        <v>0.2578585045498627</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4508129392284734</v>
+        <v>0.1976296380086238</v>
       </c>
       <c r="S13" t="n">
-        <v>0.395823747002753</v>
+        <v>0.1346137162129809</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3746286065230885</v>
+        <v>0.3927715656738888</v>
       </c>
       <c r="U13" t="n">
-        <v>0.3970735699134235</v>
+        <v>0.1640337004067096</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4249816247931928</v>
+        <v>0.1470722062387589</v>
       </c>
     </row>
     <row r="14">
@@ -1386,68 +1386,348 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>t5_large_context_full_pred</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4144986313784613</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.162621359223301</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.5707713820163254</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.09482758620689655</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2931597244436253</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.223021582733813</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1132075471698113</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.4638920247066057</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.4660593441819338</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.3759026432939769</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.2542107706094279</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.4136114951795637</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.3797333319124457</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.3528318590855914</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>t5_small_context_full_pred</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2981975401408778</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0970873786407767</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1777777777777778</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.4027954594669656</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.2187566240820058</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.158273381294964</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.1195652173913044</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.07547169811320754</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.04444444444444445</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.3718039518310361</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.3498080361117888</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.2293224275007038</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.1949533938069155</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.2964062088308516</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.2045648121381426</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.200347304865447</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>unifiedQA_base_6_hist_pred</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4713433996950854</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2063106796116505</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.5423464029590419</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1724137931034483</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4165013414198429</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.223021582733813</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.169811320754717</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.2045454545454546</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.2111111111111111</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.5356932272206784</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.477376364984325</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.4573044875973437</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.3917918700214593</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.3743645816294801</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.3950696235543547</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.4275937764785336</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>unifiedQA_large_context_full_pred</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>0.4181386684182393</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C17" t="n">
+        <v>0.4181283886089341</v>
+      </c>
+      <c r="D17" t="n">
         <v>0.1674757281553398</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E17" t="n">
         <v>0.2777777777777778</v>
       </c>
-      <c r="F14" t="n">
-        <v>0.6011976987333936</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="F17" t="n">
+        <v>0.6010463695439543</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.08189655172413793</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.2773956832629126</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H17" t="n">
+        <v>0.276172319168945</v>
+      </c>
+      <c r="I17" t="n">
         <v>0.1942446043165468</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J17" t="n">
         <v>0.1956521739130435</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K17" t="n">
         <v>0.2264150943396226</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L17" t="n">
         <v>0.125</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>0.1363636363636364</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O17" t="n">
         <v>0.1222222222222222</v>
       </c>
-      <c r="P14" t="n">
-        <v>0.4670991961978425</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.4613019853091947</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.4257710637709405</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.3177966950669156</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.4887387914613753</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.2870491966843747</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.3276639648123332</v>
+      <c r="P17" t="n">
+        <v>0.4666561633056884</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.4634077493707822</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.4283134582331901</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.3134885620915032</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.4849101567436366</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.289026384265766</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.3264838062836414</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>t5_base_context_SBERT</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2356500131868931</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.03398058252427184</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2964215320187452</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01724137931034483</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.1873516868519697</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.06474820143884892</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.02272727272727273</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.01111111111111111</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.2597958607740641</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.3113928810530918</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.19032935513709</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.1296005515239261</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.428612428675064</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.1962765713778034</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.1515144617550729</v>
       </c>
     </row>
   </sheetData>

--- a/aaa_results/scores.xlsx
+++ b/aaa_results/scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3533884410795726</v>
+        <v>0.3537195204488968</v>
       </c>
       <c r="D2" t="n">
         <v>0.1262135922330097</v>
@@ -559,13 +559,13 @@
         <v>0.2444444444444444</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5081026300674081</v>
+        <v>0.5081532222878404</v>
       </c>
       <c r="G2" t="n">
         <v>0.03448275862068965</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2335445195714014</v>
+        <v>0.2339355555181789</v>
       </c>
       <c r="I2" t="n">
         <v>0.1870503597122302</v>
@@ -589,25 +589,25 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4219791805187241</v>
+        <v>0.4205047377108571</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3888954350691777</v>
+        <v>0.3868180301676368</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3440001422969025</v>
+        <v>0.3439684809707521</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2375092173621585</v>
+        <v>0.2319690973751076</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3472418608536824</v>
+        <v>0.3521423451539338</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3509142107197201</v>
+        <v>0.3501701789802192</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2620835289948086</v>
+        <v>0.2628832420866175</v>
       </c>
     </row>
     <row r="3">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2360587076670593</v>
+        <v>0.2350073106455572</v>
       </c>
       <c r="D3" t="n">
         <v>0.05097087378640777</v>
@@ -629,13 +629,13 @@
         <v>0.1055555555555556</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3715884194846192</v>
+        <v>0.3720998899217995</v>
       </c>
       <c r="G3" t="n">
         <v>0.008620689655172414</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1291065818780604</v>
+        <v>0.1290608157307757</v>
       </c>
       <c r="I3" t="n">
         <v>0.07913669064748201</v>
@@ -659,25 +659,25 @@
         <v>0.01111111111111111</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2531834327793917</v>
+        <v>0.2533282758717755</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2512023923030074</v>
+        <v>0.2503314781857033</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2449902550975329</v>
+        <v>0.2434357956538643</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1626811898673554</v>
+        <v>0.1633190331003925</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5731381460874136</v>
+        <v>0.5728333698356847</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2041518553792704</v>
+        <v>0.2050989195722061</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1628795699821715</v>
+        <v>0.1642096712303048</v>
       </c>
     </row>
     <row r="4">
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4649179638892231</v>
+        <v>0.4640577884649744</v>
       </c>
       <c r="D4" t="n">
         <v>0.2014563106796116</v>
@@ -699,13 +699,13 @@
         <v>0.2611111111111111</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5525951151301935</v>
+        <v>0.5514515591087533</v>
       </c>
       <c r="G4" t="n">
         <v>0.1551724137931035</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3962009763594561</v>
+        <v>0.3976504872758485</v>
       </c>
       <c r="I4" t="n">
         <v>0.223021582733813</v>
@@ -729,25 +729,25 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5345451767405247</v>
+        <v>0.5328260109030745</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4635682599608313</v>
+        <v>0.4672038528833969</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4109906728740387</v>
+        <v>0.4079464953642462</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3067015130048811</v>
+        <v>0.3044820110225708</v>
       </c>
       <c r="T4" t="n">
-        <v>0.397318660695822</v>
+        <v>0.3986221828167226</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3208203510041078</v>
+        <v>0.3221166723064099</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4574689698049167</v>
+        <v>0.4596913383496929</v>
       </c>
     </row>
     <row r="5">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.259076513538447</v>
+        <v>0.258159907268005</v>
       </c>
       <c r="D5" t="n">
         <v>0.0825242718446602</v>
@@ -769,13 +769,13 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2981950253341373</v>
+        <v>0.295597649124879</v>
       </c>
       <c r="G5" t="n">
         <v>0.0603448275862069</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2291819082450644</v>
+        <v>0.2300079008300986</v>
       </c>
       <c r="I5" t="n">
         <v>0.1294964028776978</v>
@@ -799,25 +799,25 @@
         <v>0.07777777777777778</v>
       </c>
       <c r="P5" t="n">
-        <v>0.319568106718508</v>
+        <v>0.3189254855807291</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3133278455497739</v>
+        <v>0.3132795236401282</v>
       </c>
       <c r="R5" t="n">
-        <v>0.157126783667258</v>
+        <v>0.156633660264681</v>
       </c>
       <c r="S5" t="n">
-        <v>0.193890806586885</v>
+        <v>0.191205018950117</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3095603933371919</v>
+        <v>0.310313116413259</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1524676495681173</v>
+        <v>0.1520924938261138</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1920832320424137</v>
+        <v>0.193132988653855</v>
       </c>
     </row>
     <row r="6">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3454235363173907</v>
+        <v>0.3454873923420244</v>
       </c>
       <c r="D6" t="n">
         <v>0.1140776699029126</v>
@@ -839,13 +839,13 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5009350234066223</v>
+        <v>0.5013144085242836</v>
       </c>
       <c r="G6" t="n">
         <v>0.02155172413793104</v>
       </c>
       <c r="H6" t="n">
-        <v>0.226566114493249</v>
+        <v>0.2260032481546493</v>
       </c>
       <c r="I6" t="n">
         <v>0.1366906474820144</v>
@@ -869,25 +869,25 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3938370041484202</v>
+        <v>0.3944074554396504</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3892536950940835</v>
+        <v>0.3910401024420574</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3666893620644982</v>
+        <v>0.3645752975775807</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2551451790739661</v>
+        <v>0.2550062004510488</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3754890294261403</v>
+        <v>0.3706040237214624</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2635143584256767</v>
+        <v>0.262003524543583</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2503029156139003</v>
+        <v>0.2515732841579261</v>
       </c>
     </row>
     <row r="7">
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4748912623337589</v>
+        <v>0.4745730960426793</v>
       </c>
       <c r="D7" t="n">
         <v>0.2233009708737864</v>
@@ -909,13 +909,13 @@
         <v>0.2611111111111111</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5447975456780161</v>
+        <v>0.5431570551845122</v>
       </c>
       <c r="G7" t="n">
         <v>0.1939655172413793</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4204086263615739</v>
+        <v>0.421531074039218</v>
       </c>
       <c r="I7" t="n">
         <v>0.237410071942446</v>
@@ -939,25 +939,25 @@
         <v>0.2444444444444444</v>
       </c>
       <c r="P7" t="n">
-        <v>0.529125589477367</v>
+        <v>0.5295535058902423</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5211167621234305</v>
+        <v>0.5238676575903616</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4611415974788398</v>
+        <v>0.4608478442487209</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3603521070432835</v>
+        <v>0.3648445345504169</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3887290496709815</v>
+        <v>0.3937937821584293</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3532655030607236</v>
+        <v>0.3524310885086837</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4241821533031468</v>
+        <v>0.4247696571394429</v>
       </c>
     </row>
     <row r="8">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3190461561557432</v>
+        <v>0.3181000740224703</v>
       </c>
       <c r="D8" t="n">
         <v>0.1140776699029126</v>
@@ -979,13 +979,13 @@
         <v>0.15</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3995283133933768</v>
+        <v>0.4003217975264194</v>
       </c>
       <c r="G8" t="n">
         <v>0.08620689655172414</v>
       </c>
       <c r="H8" t="n">
-        <v>0.255614819843629</v>
+        <v>0.2568018117042612</v>
       </c>
       <c r="I8" t="n">
         <v>0.1870503597122302</v>
@@ -1009,25 +1009,25 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4003683536590763</v>
+        <v>0.3979089723262506</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3711220134122554</v>
+        <v>0.3739260591953143</v>
       </c>
       <c r="R8" t="n">
-        <v>0.270581382061246</v>
+        <v>0.2678565089690572</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2336945531438817</v>
+        <v>0.2340766191869132</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5391088107417397</v>
+        <v>0.5421451445937813</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2411437894541513</v>
+        <v>0.2435867606321255</v>
       </c>
       <c r="V8" t="n">
-        <v>0.177768623190787</v>
+        <v>0.1753929234465794</v>
       </c>
     </row>
     <row r="9">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2879433760120964</v>
+        <v>0.2887339769674042</v>
       </c>
       <c r="D9" t="n">
         <v>0.09223300970873786</v>
@@ -1049,13 +1049,13 @@
         <v>0.1444444444444444</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4102539390688199</v>
+        <v>0.4098047368790058</v>
       </c>
       <c r="G9" t="n">
         <v>0.05172413793103448</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1929803795807633</v>
+        <v>0.1937101265410406</v>
       </c>
       <c r="I9" t="n">
         <v>0.1294964028776978</v>
@@ -1079,25 +1079,25 @@
         <v>0.04444444444444445</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3520355902868611</v>
+        <v>0.3505845044513686</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3230324679497787</v>
+        <v>0.3231788633629571</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2493566249631651</v>
+        <v>0.2490952675376793</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2092546473844428</v>
+        <v>0.2059776057985777</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3611270739400514</v>
+        <v>0.3671625036750629</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2201455962625552</v>
+        <v>0.2210549964553729</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2090406919602751</v>
+        <v>0.2102816458500022</v>
       </c>
     </row>
     <row r="10">
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2903474464782937</v>
+        <v>0.2896355885553694</v>
       </c>
       <c r="D10" t="n">
         <v>0.07766990291262135</v>
@@ -1119,13 +1119,13 @@
         <v>0.1277777777777778</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3949338996296768</v>
+        <v>0.3923422174615921</v>
       </c>
       <c r="G10" t="n">
         <v>0.03879310344827586</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2085886881556483</v>
+        <v>0.2084476380196585</v>
       </c>
       <c r="I10" t="n">
         <v>0.07913669064748201</v>
@@ -1149,25 +1149,25 @@
         <v>0.07777777777777778</v>
       </c>
       <c r="P10" t="n">
-        <v>0.3087677896062104</v>
+        <v>0.3080649978107579</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2587725643251132</v>
+        <v>0.2588803920837979</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2725950152832441</v>
+        <v>0.2720638290437407</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2569938492568448</v>
+        <v>0.2587733300837885</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7473399906398321</v>
+        <v>0.7384953057401498</v>
       </c>
       <c r="U10" t="n">
-        <v>0.2407779541895421</v>
+        <v>0.237736826449112</v>
       </c>
       <c r="V10" t="n">
-        <v>0.2313693433418256</v>
+        <v>0.2341745762290276</v>
       </c>
     </row>
     <row r="11">
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.4764377453777123</v>
+        <v>0.4751335813325955</v>
       </c>
       <c r="D11" t="n">
         <v>0.2087378640776699</v>
@@ -1189,13 +1189,13 @@
         <v>0.2833333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5584113991746593</v>
+        <v>0.556066346990199</v>
       </c>
       <c r="G11" t="n">
         <v>0.1508620689655172</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4126580071601478</v>
+        <v>0.4134628616314475</v>
       </c>
       <c r="I11" t="n">
         <v>0.2302158273381295</v>
@@ -1219,25 +1219,25 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5601522333087521</v>
+        <v>0.5555502328386277</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5051787006227806</v>
+        <v>0.5089127014352152</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4079864423805434</v>
+        <v>0.4060545438213856</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4001950459671048</v>
+        <v>0.3977659023982553</v>
       </c>
       <c r="T11" t="n">
-        <v>0.3654697833516115</v>
+        <v>0.3629223826628298</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3463001879129096</v>
+        <v>0.3468541330999113</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4308530218225893</v>
+        <v>0.4328298108700174</v>
       </c>
     </row>
     <row r="12">
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.461446636805747</v>
+        <v>0.4622538824582639</v>
       </c>
       <c r="D12" t="n">
         <v>0.1893203883495146</v>
@@ -1259,13 +1259,13 @@
         <v>0.2444444444444444</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5401600787513487</v>
+        <v>0.5392405123495985</v>
       </c>
       <c r="G12" t="n">
         <v>0.146551724137931</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4019876389797862</v>
+        <v>0.4013204517162738</v>
       </c>
       <c r="I12" t="n">
         <v>0.2086330935251799</v>
@@ -1289,25 +1289,25 @@
         <v>0.2111111111111111</v>
       </c>
       <c r="P12" t="n">
-        <v>0.532404699252369</v>
+        <v>0.5313019479281166</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4866446892832381</v>
+        <v>0.4906059651678607</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4118958463522113</v>
+        <v>0.4114669328783851</v>
       </c>
       <c r="S12" t="n">
-        <v>0.3466778931852461</v>
+        <v>0.3426755332086213</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3734952265312931</v>
+        <v>0.3751580145126089</v>
       </c>
       <c r="U12" t="n">
-        <v>0.3368836307233436</v>
+        <v>0.340788971999787</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4184786515520986</v>
+        <v>0.4191295030421165</v>
       </c>
     </row>
     <row r="13">
@@ -1316,68 +1316,68 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>unifiedQA_base_context_SBERT</t>
+          <t>4_utter_history</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2183533085422</v>
+        <v>0.4842319923658853</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03640776699029126</v>
+        <v>0.2160194174757281</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="F13" t="n">
-        <v>0.295348014470853</v>
+        <v>0.5482350153172866</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01293103448275862</v>
+        <v>0.1767241379310345</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1563917311337109</v>
+        <v>0.4327738440929967</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05755395683453238</v>
+        <v>0.2302158273381295</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.2282608695652174</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2482382646580094</v>
+        <v>0.5351920404623692</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2578585045498627</v>
+        <v>0.4980414150025699</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1976296380086238</v>
+        <v>0.4206925233357884</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1346137162129809</v>
+        <v>0.4044235440829423</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3927715656738888</v>
+        <v>0.3687571944990676</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1640337004067096</v>
+        <v>0.4257118214706871</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1470722062387589</v>
+        <v>0.4844201045960403</v>
       </c>
     </row>
     <row r="14">
@@ -1386,68 +1386,68 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>t5_large_context_full_pred</t>
+          <t>unifiedQA_base_context_SBERT</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.4144986313784613</v>
+        <v>0.2171227975850295</v>
       </c>
       <c r="D14" t="n">
-        <v>0.162621359223301</v>
+        <v>0.03640776699029126</v>
       </c>
       <c r="E14" t="n">
-        <v>0.25</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5707713820163254</v>
+        <v>0.2946424829885579</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09482758620689655</v>
+        <v>0.01293103448275862</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2931597244436253</v>
+        <v>0.1567906191591152</v>
       </c>
       <c r="I14" t="n">
-        <v>0.223021582733813</v>
+        <v>0.05755395683453238</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1132075471698113</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P14" t="n">
-        <v>0.4638920247066057</v>
+        <v>0.2441425309440238</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4660593441819338</v>
+        <v>0.2575338442849499</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3759026432939769</v>
+        <v>0.1966867830605826</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2542107706094279</v>
+        <v>0.1331125655390361</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4136114951795637</v>
+        <v>0.3981948091775467</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3797333319124457</v>
+        <v>0.1627795656057979</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3528318590855914</v>
+        <v>0.1473059955180698</v>
       </c>
     </row>
     <row r="15">
@@ -1456,68 +1456,68 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>t5_small_context_full_pred</t>
+          <t>6_utter_history</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2981975401408778</v>
+        <v>0.4716921973328519</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0970873786407767</v>
+        <v>0.2063106796116505</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1777777777777778</v>
+        <v>0.25</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4027954594669656</v>
+        <v>0.5427426808349773</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2187566240820058</v>
+        <v>0.4167747117744099</v>
       </c>
       <c r="I15" t="n">
-        <v>0.158273381294964</v>
+        <v>0.223021582733813</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1195652173913044</v>
+        <v>0.25</v>
       </c>
       <c r="K15" t="n">
-        <v>0.07547169811320754</v>
+        <v>0.169811320754717</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="O15" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3718039518310361</v>
+        <v>0.5341033389280962</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3498080361117888</v>
+        <v>0.4845102804583973</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2293224275007038</v>
+        <v>0.4570017863133413</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1949533938069155</v>
+        <v>0.3885821443694162</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2964062088308516</v>
+        <v>0.3684616574680006</v>
       </c>
       <c r="U15" t="n">
-        <v>0.2045648121381426</v>
+        <v>0.3966328190135535</v>
       </c>
       <c r="V15" t="n">
-        <v>0.200347304865447</v>
+        <v>0.4284845562872925</v>
       </c>
     </row>
     <row r="16">
@@ -1526,68 +1526,68 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>unifiedQA_base_6_hist_pred</t>
+          <t>t5_large_context_full_pred</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.4713433996950854</v>
+        <v>0.4147732849714887</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2063106796116505</v>
+        <v>0.162621359223301</v>
       </c>
       <c r="E16" t="n">
         <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5423464029590419</v>
+        <v>0.5704276420654085</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1724137931034483</v>
+        <v>0.09482758620689655</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4165013414198429</v>
+        <v>0.2925669317005357</v>
       </c>
       <c r="I16" t="n">
         <v>0.223021582733813</v>
       </c>
       <c r="J16" t="n">
-        <v>0.25</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="K16" t="n">
-        <v>0.169811320754717</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="L16" t="n">
-        <v>0.125</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2045454545454546</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2111111111111111</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5356932272206784</v>
+        <v>0.4631121055436994</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.477376364984325</v>
+        <v>0.4668793888220236</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4573044875973437</v>
+        <v>0.3717424926078247</v>
       </c>
       <c r="S16" t="n">
-        <v>0.3917918700214593</v>
+        <v>0.2559831904604922</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3743645816294801</v>
+        <v>0.4185273478349279</v>
       </c>
       <c r="U16" t="n">
-        <v>0.3950696235543547</v>
+        <v>0.3779591567101969</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4275937764785336</v>
+        <v>0.3555842309122857</v>
       </c>
     </row>
     <row r="17">
@@ -1596,68 +1596,68 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>unifiedQA_large_context_full_pred</t>
+          <t>t5_small_context_full_pred</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.4181283886089341</v>
+        <v>0.2991976985179484</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1674757281553398</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6010463695439543</v>
+        <v>0.4031109554681314</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08189655172413793</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="H17" t="n">
-        <v>0.276172319168945</v>
+        <v>0.2186542032524529</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1942446043165468</v>
+        <v>0.158273381294964</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1956521739130435</v>
+        <v>0.1195652173913044</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2264150943396226</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="L17" t="n">
-        <v>0.125</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1222222222222222</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="P17" t="n">
-        <v>0.4666561633056884</v>
+        <v>0.3730539456576989</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.4634077493707822</v>
+        <v>0.3483509965794513</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4283134582331901</v>
+        <v>0.2279994675481765</v>
       </c>
       <c r="S17" t="n">
-        <v>0.3134885620915032</v>
+        <v>0.1942435048181952</v>
       </c>
       <c r="T17" t="n">
-        <v>0.4849101567436366</v>
+        <v>0.2997866655400404</v>
       </c>
       <c r="U17" t="n">
-        <v>0.289026384265766</v>
+        <v>0.202144019254009</v>
       </c>
       <c r="V17" t="n">
-        <v>0.3264838062836414</v>
+        <v>0.200174400458273</v>
       </c>
     </row>
     <row r="18">
@@ -1666,68 +1666,348 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>2_utter_history</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4669812182250085</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.2063106796116505</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.5477860704871982</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1724137931034483</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.4052588455591773</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.2158273381294964</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.2065217391304348</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.2075471698113208</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.525023661995344</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.4684903640818023</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.4687573085408397</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.3459369606428429</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.3751580145126089</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.3203326356436405</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.4379080867665692</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>unifiedQA_base_6_hist_pred</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4716921973328519</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.2063106796116505</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.5427426808349773</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1724137931034483</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4167747117744099</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.223021582733813</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.169811320754717</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.2045454545454546</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.2111111111111111</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.5341033389280962</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.4845102804583973</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.4570017863133413</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.3885821443694162</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.3684616574680006</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.3966328190135535</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.4284845562872925</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>unifiedQA_large_context_full_pred</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4180270719760391</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1674757281553398</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.6016023729879354</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.08189655172413793</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.2755833800364744</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1942446043165468</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.1956521739130435</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2264150943396226</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.1222222222222222</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.4647175272958408</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.4639494857034842</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.4244040262245943</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.3096241830065359</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.4859568024102485</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.2878699712251149</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.3292745511832118</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>t5_base_context_SBERT</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>0.2356500131868931</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C21" t="n">
+        <v>0.234739930406298</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.03398058252427184</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E21" t="n">
         <v>0.05555555555555555</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.2964215320187452</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="F21" t="n">
+        <v>0.2955458288123924</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.01724137931034483</v>
       </c>
-      <c r="H18" t="n">
-        <v>0.1873516868519697</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H21" t="n">
+        <v>0.1865493092456033</v>
+      </c>
+      <c r="I21" t="n">
         <v>0.06474820143884892</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J21" t="n">
         <v>0.04347826086956522</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>0.02272727272727273</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O21" t="n">
         <v>0.01111111111111111</v>
       </c>
-      <c r="P18" t="n">
-        <v>0.2597958607740641</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.3113928810530918</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.19032935513709</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.1296005515239261</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.428612428675064</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.1962765713778034</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.1515144617550729</v>
+      <c r="P21" t="n">
+        <v>0.256797908709708</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.3117005152662198</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.1910587024629598</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.1290376834494482</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.4340442898900083</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.1953259149567585</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.152283228048248</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0_utter_history</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4838067918394378</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2184466019417476</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.2611111111111111</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.5604970112551633</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1853448275862069</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.4234915266792988</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2517985611510791</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.1886792452830189</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.1136363636363636</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.2444444444444444</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.5398439902796487</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.5420642375357894</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.4656849004193541</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.3329898689273689</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.3774669518148157</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.2596620264137152</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.4458987863197904</v>
       </c>
     </row>
   </sheetData>

--- a/aaa_results/scores.xlsx
+++ b/aaa_results/scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,68 +546,68 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>t5_base_context_full_pred</t>
+          <t>unifiedQA_large_selective_context</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3537195204488968</v>
+        <v>0.5238675718935375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1262135922330097</v>
+        <v>0.2621359223300971</v>
       </c>
       <c r="E2" t="n">
+        <v>0.3166666666666667</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.598726717330113</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2198275862068965</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.4679420718251538</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.3237410071942446</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2934782608695652</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.1509433962264151</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.2045454545454546</v>
+      </c>
+      <c r="O2" t="n">
         <v>0.2444444444444444</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.5081532222878404</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.2339355555181789</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.1870503597122302</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.07547169811320754</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.04166666666666666</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.1363636363636364</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.06666666666666667</v>
-      </c>
       <c r="P2" t="n">
-        <v>0.4205047377108571</v>
+        <v>0.6112639438500905</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3868180301676368</v>
+        <v>0.5496626341472571</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3439684809707521</v>
+        <v>0.4379601214277645</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2319690973751076</v>
+        <v>0.4722757127929542</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3521423451539338</v>
+        <v>0.4474955296777894</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3501701789802192</v>
+        <v>0.3227389641711892</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2628832420866175</v>
+        <v>0.4603719099864654</v>
       </c>
     </row>
     <row r="3">
@@ -616,68 +616,68 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>gpt_pred_full_context_example</t>
+          <t>t5_base_context_full_pred</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2350073106455572</v>
+        <v>0.3528164097255025</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05097087378640777</v>
+        <v>0.1262135922330097</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1055555555555556</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3720998899217995</v>
+        <v>0.5062197202719992</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008620689655172414</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1290608157307757</v>
+        <v>0.233740922274124</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07913669064748201</v>
+        <v>0.1870503597122302</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02173913043478261</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05660377358490566</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="L3" t="n">
         <v>0.04166666666666666</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2307692307692308</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06818181818181818</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01111111111111111</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2533282758717755</v>
+        <v>0.4238357610843896</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2503314781857033</v>
+        <v>0.386124660094704</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2434357956538643</v>
+        <v>0.3425926965065863</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1633190331003925</v>
+        <v>0.2340489293078807</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5728333698356847</v>
+        <v>0.3506390634923338</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2050989195722061</v>
+        <v>0.3471903580375859</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1642096712303048</v>
+        <v>0.2615261226859077</v>
       </c>
     </row>
     <row r="4">
@@ -686,68 +686,68 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>unifiedQA_base_2_hist_pred</t>
+          <t>gpt_pred_full_context_example</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4640577884649744</v>
+        <v>0.2337517349425614</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2014563106796116</v>
+        <v>0.05097087378640777</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2611111111111111</v>
+        <v>0.1055555555555556</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5514515591087533</v>
+        <v>0.3707419139112256</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1551724137931035</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3976504872758485</v>
+        <v>0.1292529830874863</v>
       </c>
       <c r="I4" t="n">
-        <v>0.223021582733813</v>
+        <v>0.07913669064748201</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="K4" t="n">
-        <v>0.169811320754717</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5328260109030745</v>
+        <v>0.2546745807991415</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4672038528833969</v>
+        <v>0.2501276312941589</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4079464953642462</v>
+        <v>0.2458582281519444</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3044820110225708</v>
+        <v>0.1633808578295895</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3986221828167226</v>
+        <v>0.5672223013742337</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3221166723064099</v>
+        <v>0.2026866027336236</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4596913383496929</v>
+        <v>0.1609327682865498</v>
       </c>
     </row>
     <row r="5">
@@ -756,68 +756,68 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FiD_context_unstruct</t>
+          <t>unifiedQA_base_2_hist_pred</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.258159907268005</v>
+        <v>0.4642629251497079</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0825242718446602</v>
+        <v>0.2014563106796116</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.2611111111111111</v>
       </c>
       <c r="F5" t="n">
-        <v>0.295597649124879</v>
+        <v>0.5528729021123362</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0603448275862069</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2300079008300986</v>
+        <v>0.3980348846949538</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1294964028776978</v>
+        <v>0.223021582733813</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.169811320754717</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07777777777777778</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3189254855807291</v>
+        <v>0.5336865092672866</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3132795236401282</v>
+        <v>0.4645517336239436</v>
       </c>
       <c r="R5" t="n">
-        <v>0.156633660264681</v>
+        <v>0.410777551317389</v>
       </c>
       <c r="S5" t="n">
-        <v>0.191205018950117</v>
+        <v>0.3070678477076721</v>
       </c>
       <c r="T5" t="n">
-        <v>0.310313116413259</v>
+        <v>0.3990605837626677</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1520924938261138</v>
+        <v>0.3204153993039903</v>
       </c>
       <c r="V5" t="n">
-        <v>0.193132988653855</v>
+        <v>0.457046538462648</v>
       </c>
     </row>
     <row r="6">
@@ -826,38 +826,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>unifiedQA_base_context_full_pred</t>
+          <t>FiD_context_unstruct</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3454873923420244</v>
+        <v>0.2583415791681539</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1140776699029126</v>
+        <v>0.0825242718446602</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5013144085242836</v>
+        <v>0.2974891472791598</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02155172413793104</v>
+        <v>0.0603448275862069</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2260032481546493</v>
+        <v>0.2297975987308737</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1366906474820144</v>
+        <v>0.1294964028776978</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1847826086956522</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1132075471698113</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -866,28 +866,28 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="O6" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3944074554396504</v>
+        <v>0.3198504315238805</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3910401024420574</v>
+        <v>0.3127259080734222</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3645752975775807</v>
+        <v>0.1566830317216189</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2550062004510488</v>
+        <v>0.1944897105191223</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3706040237214624</v>
+        <v>0.3169634115213844</v>
       </c>
       <c r="U6" t="n">
-        <v>0.262003524543583</v>
+        <v>0.1512339494829988</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2515732841579261</v>
+        <v>0.1901807154677227</v>
       </c>
     </row>
     <row r="7">
@@ -896,68 +896,68 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>t5_base_context_select_pred</t>
+          <t>unifiedQA_base_context_full_pred</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4745730960426793</v>
+        <v>0.3450914577849173</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2233009708737864</v>
+        <v>0.1140776699029126</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2611111111111111</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5431570551845122</v>
+        <v>0.5012676366553277</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1939655172413793</v>
+        <v>0.02155172413793104</v>
       </c>
       <c r="H7" t="n">
-        <v>0.421531074039218</v>
+        <v>0.2251219259350745</v>
       </c>
       <c r="I7" t="n">
-        <v>0.237410071942446</v>
+        <v>0.1366906474820144</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1886792452830189</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2444444444444444</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5295535058902423</v>
+        <v>0.3950613695465053</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5238676575903616</v>
+        <v>0.3892400990219778</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4608478442487209</v>
+        <v>0.3638319369723454</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3648445345504169</v>
+        <v>0.2569294252788835</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3937937821584293</v>
+        <v>0.3741903756490425</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3524310885086837</v>
+        <v>0.2630079196132956</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4247696571394429</v>
+        <v>0.2499997091236565</v>
       </c>
     </row>
     <row r="8">
@@ -966,68 +966,68 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FiD_context_struct</t>
+          <t>t5_base_context_select_pred</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3181000740224703</v>
+        <v>0.4744734579679709</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1140776699029126</v>
+        <v>0.2233009708737864</v>
       </c>
       <c r="E8" t="n">
-        <v>0.15</v>
+        <v>0.2611111111111111</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4003217975264194</v>
+        <v>0.5448503271539127</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08620689655172414</v>
+        <v>0.1939655172413793</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2568018117042612</v>
+        <v>0.4220498625260718</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1870503597122302</v>
+        <v>0.237410071942446</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09782608695652174</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07547169811320754</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3979089723262506</v>
+        <v>0.5276963573155612</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3739260591953143</v>
+        <v>0.5217670247637294</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2678565089690572</v>
+        <v>0.4588123454969642</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2340766191869132</v>
+        <v>0.3649849796173326</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5421451445937813</v>
+        <v>0.3933354827847316</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2435867606321255</v>
+        <v>0.3516898318398734</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1753929234465794</v>
+        <v>0.4224415333672972</v>
       </c>
     </row>
     <row r="9">
@@ -1036,68 +1036,68 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>unifiedQA_small_context_full_pred</t>
+          <t>FiD_context_struct</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2887339769674042</v>
+        <v>0.3171111561779546</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09223300970873786</v>
+        <v>0.1140776699029126</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1444444444444444</v>
+        <v>0.15</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4098047368790058</v>
+        <v>0.4008641232994677</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05172413793103448</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1937101265410406</v>
+        <v>0.2563711714778681</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1294964028776978</v>
+        <v>0.1870503597122302</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.09782608695652174</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05660377358490566</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3505845044513686</v>
+        <v>0.3972083807695814</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3231788633629571</v>
+        <v>0.3692640043213463</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2490952675376793</v>
+        <v>0.2683406136316765</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2059776057985777</v>
+        <v>0.2292403148381409</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3671625036750629</v>
+        <v>0.5470796818660302</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2210549964553729</v>
+        <v>0.2416188595494053</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2102816458500022</v>
+        <v>0.1767155375497143</v>
       </c>
     </row>
     <row r="10">
@@ -1106,68 +1106,68 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>gpt_pred_selected_context</t>
+          <t>unifiedQA_small_context_full_pred</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2896355885553694</v>
+        <v>0.2860020935252657</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07766990291262135</v>
+        <v>0.09223300970873786</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1277777777777778</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3923422174615921</v>
+        <v>0.4071514152315245</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03879310344827586</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2084476380196585</v>
+        <v>0.1947673630571953</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07913669064748201</v>
+        <v>0.1294964028776978</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02173913043478261</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07547169811320754</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="L10" t="n">
         <v>0.08333333333333333</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4615384615384616</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07777777777777778</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="P10" t="n">
-        <v>0.3080649978107579</v>
+        <v>0.3518778463738423</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2588803920837979</v>
+        <v>0.3200153705137531</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2720638290437407</v>
+        <v>0.2480807861688703</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2587733300837885</v>
+        <v>0.2032686058613168</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7384953057401498</v>
+        <v>0.3682294275418836</v>
       </c>
       <c r="U10" t="n">
-        <v>0.237736826449112</v>
+        <v>0.2172969370360187</v>
       </c>
       <c r="V10" t="n">
-        <v>0.2341745762290276</v>
+        <v>0.2080129705785853</v>
       </c>
     </row>
     <row r="11">
@@ -1176,68 +1176,68 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>unifiedQA_base_no_hist_pred</t>
+          <t>gpt_pred_selected_context</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.4751335813325955</v>
+        <v>0.2890499175513024</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2087378640776699</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.1277777777777778</v>
       </c>
       <c r="F11" t="n">
-        <v>0.556066346990199</v>
+        <v>0.3930613925315645</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1508620689655172</v>
+        <v>0.03879310344827586</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4134628616314475</v>
+        <v>0.2095535310124079</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2302158273381295</v>
+        <v>0.07913669064748201</v>
       </c>
       <c r="J11" t="n">
-        <v>0.25</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1509433962264151</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5555502328386277</v>
+        <v>0.3100019855774208</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5089127014352152</v>
+        <v>0.2591153579379882</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4060545438213856</v>
+        <v>0.2729032956320837</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3977659023982553</v>
+        <v>0.2525737414489161</v>
       </c>
       <c r="T11" t="n">
-        <v>0.3629223826628298</v>
+        <v>0.7325930171831811</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3468541330999113</v>
+        <v>0.2400048524492973</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4328298108700174</v>
+        <v>0.2294267780730161</v>
       </c>
     </row>
     <row r="12">
@@ -1246,68 +1246,68 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>unifiedQA_base_context_select_pred</t>
+          <t>unifiedQA_base_no_hist_pred</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.4622538824582639</v>
+        <v>0.4747918636013149</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1893203883495146</v>
+        <v>0.2087378640776699</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2444444444444444</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5392405123495985</v>
+        <v>0.5556217005613071</v>
       </c>
       <c r="G12" t="n">
-        <v>0.146551724137931</v>
+        <v>0.1508620689655172</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4013204517162738</v>
+        <v>0.4115772591669874</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2086330935251799</v>
+        <v>0.2302158273381295</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2282608695652174</v>
+        <v>0.25</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1320754716981132</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2111111111111111</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5313019479281166</v>
+        <v>0.557695906397992</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4906059651678607</v>
+        <v>0.5064558535766173</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4114669328783851</v>
+        <v>0.4051558341979425</v>
       </c>
       <c r="S12" t="n">
-        <v>0.3426755332086213</v>
+        <v>0.3957969195836842</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3751580145126089</v>
+        <v>0.3647646895360675</v>
       </c>
       <c r="U12" t="n">
-        <v>0.340788971999787</v>
+        <v>0.3482072880679692</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4191295030421165</v>
+        <v>0.4289359770701472</v>
       </c>
     </row>
     <row r="13">
@@ -1316,29 +1316,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4_utter_history</t>
+          <t>unifiedQA_base_context_select_pred</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.4842319923658853</v>
+        <v>0.4617729766775984</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2160194174757281</v>
+        <v>0.1893203883495146</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5482350153172866</v>
+        <v>0.5406267986451854</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1767241379310345</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4327738440929967</v>
+        <v>0.4024059077681761</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2302158273381295</v>
+        <v>0.2086330935251799</v>
       </c>
       <c r="J13" t="n">
         <v>0.2282608695652174</v>
@@ -1347,37 +1347,37 @@
         <v>0.1320754716981132</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5351920404623692</v>
+        <v>0.5306973063164824</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4980414150025699</v>
+        <v>0.4901649494874269</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4206925233357884</v>
+        <v>0.4138114687367253</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4044235440829423</v>
+        <v>0.3467142130745072</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3687571944990676</v>
+        <v>0.3743967250701817</v>
       </c>
       <c r="U13" t="n">
-        <v>0.4257118214706871</v>
+        <v>0.3388683945708364</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4844201045960403</v>
+        <v>0.419438702587773</v>
       </c>
     </row>
     <row r="14">
@@ -1386,68 +1386,68 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>unifiedQA_base_context_SBERT</t>
+          <t>4_utter_history</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2171227975850295</v>
+        <v>0.4846083666753451</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03640776699029126</v>
+        <v>0.2160194174757281</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2946424829885579</v>
+        <v>0.5492440020126717</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01293103448275862</v>
+        <v>0.1767241379310345</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1567906191591152</v>
+        <v>0.4338912582411389</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05755395683453238</v>
+        <v>0.2302158273381295</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.2282608695652174</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2441425309440238</v>
+        <v>0.5394047382982992</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2575338442849499</v>
+        <v>0.4938108571100086</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1966867830605826</v>
+        <v>0.42398471808858</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1331125655390361</v>
+        <v>0.4095304991286229</v>
       </c>
       <c r="T14" t="n">
-        <v>0.3981948091775467</v>
+        <v>0.3696389483600586</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1627795656057979</v>
+        <v>0.4235919286017794</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1473059955180698</v>
+        <v>0.4830815833854525</v>
       </c>
     </row>
     <row r="15">
@@ -1456,68 +1456,68 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6_utter_history</t>
+          <t>unifiedQA_base_context_SBERT</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.4716921973328519</v>
+        <v>0.2164202125439051</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2063106796116505</v>
+        <v>0.03640776699029126</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5427426808349773</v>
+        <v>0.2939627229211061</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1724137931034483</v>
+        <v>0.01293103448275862</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4167747117744099</v>
+        <v>0.1574108071098787</v>
       </c>
       <c r="I15" t="n">
-        <v>0.223021582733813</v>
+        <v>0.05755395683453238</v>
       </c>
       <c r="J15" t="n">
-        <v>0.25</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="K15" t="n">
-        <v>0.169811320754717</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2045454545454546</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2111111111111111</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5341033389280962</v>
+        <v>0.2468691979601046</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4845102804583973</v>
+        <v>0.2554484722819669</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4570017863133413</v>
+        <v>0.1998067998517565</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3885821443694162</v>
+        <v>0.1332072305417893</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3684616574680006</v>
+        <v>0.4037786511914009</v>
       </c>
       <c r="U15" t="n">
-        <v>0.3966328190135535</v>
+        <v>0.1642885221555153</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4284845562872925</v>
+        <v>0.1486042291950319</v>
       </c>
     </row>
     <row r="16">
@@ -1526,68 +1526,68 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>t5_large_context_full_pred</t>
+          <t>6_utter_history</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.4147732849714887</v>
+        <v>0.4722120597916311</v>
       </c>
       <c r="D16" t="n">
-        <v>0.162621359223301</v>
+        <v>0.2063106796116505</v>
       </c>
       <c r="E16" t="n">
         <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5704276420654085</v>
+        <v>0.5434987919322178</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09482758620689655</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2925669317005357</v>
+        <v>0.4175790765911522</v>
       </c>
       <c r="I16" t="n">
         <v>0.223021582733813</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.25</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1132075471698113</v>
+        <v>0.169811320754717</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="P16" t="n">
-        <v>0.4631121055436994</v>
+        <v>0.5345159677796719</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4668793888220236</v>
+        <v>0.4808511093888741</v>
       </c>
       <c r="R16" t="n">
-        <v>0.3717424926078247</v>
+        <v>0.4533374610429514</v>
       </c>
       <c r="S16" t="n">
-        <v>0.2559831904604922</v>
+        <v>0.3928664894942785</v>
       </c>
       <c r="T16" t="n">
-        <v>0.4185273478349279</v>
+        <v>0.3727270230551272</v>
       </c>
       <c r="U16" t="n">
-        <v>0.3779591567101969</v>
+        <v>0.3973897781472366</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3555842309122857</v>
+        <v>0.4274158501745025</v>
       </c>
     </row>
     <row r="17">
@@ -1596,35 +1596,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>t5_small_context_full_pred</t>
+          <t>t5_large_context_full_pred</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2991976985179484</v>
+        <v>0.4142072040095132</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0970873786407767</v>
+        <v>0.162621359223301</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1777777777777778</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4031109554681314</v>
+        <v>0.5687919510691566</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.09482758620689655</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2186542032524529</v>
+        <v>0.293867603852296</v>
       </c>
       <c r="I17" t="n">
-        <v>0.158273381294964</v>
+        <v>0.223021582733813</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1195652173913044</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="K17" t="n">
-        <v>0.07547169811320754</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="L17" t="n">
         <v>0.04166666666666666</v>
@@ -1633,31 +1633,31 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="O17" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P17" t="n">
-        <v>0.3730539456576989</v>
+        <v>0.4673933569202368</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3483509965794513</v>
+        <v>0.4622854915859791</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2279994675481765</v>
+        <v>0.3754099661427776</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1942435048181952</v>
+        <v>0.2585573553971892</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2997866655400404</v>
+        <v>0.4191836817272117</v>
       </c>
       <c r="U17" t="n">
-        <v>0.202144019254009</v>
+        <v>0.3766233438144193</v>
       </c>
       <c r="V17" t="n">
-        <v>0.200174400458273</v>
+        <v>0.3539409648671762</v>
       </c>
     </row>
     <row r="18">
@@ -1666,68 +1666,68 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2_utter_history</t>
+          <t>t5_small_context_full_pred</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.4669812182250085</v>
+        <v>0.2980339855239685</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2063106796116505</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="E18" t="n">
-        <v>0.25</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5477860704871982</v>
+        <v>0.40272876455507</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1724137931034483</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4052588455591773</v>
+        <v>0.2198112166303012</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2158273381294964</v>
+        <v>0.158273381294964</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2065217391304348</v>
+        <v>0.1195652173913044</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2075471698113208</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="P18" t="n">
-        <v>0.525023661995344</v>
+        <v>0.3744686026491513</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.4684903640818023</v>
+        <v>0.3470943129695271</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4687573085408397</v>
+        <v>0.2291687346186161</v>
       </c>
       <c r="S18" t="n">
-        <v>0.3459369606428429</v>
+        <v>0.1939391217013121</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3751580145126089</v>
+        <v>0.2973142996162489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.3203326356436405</v>
+        <v>0.2028215208656798</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4379080867665692</v>
+        <v>0.2008707336631313</v>
       </c>
     </row>
     <row r="19">
@@ -1736,11 +1736,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>unifiedQA_base_6_hist_pred</t>
+          <t>2_utter_history</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.4716921973328519</v>
+        <v>0.4665327233646208</v>
       </c>
       <c r="D19" t="n">
         <v>0.2063106796116505</v>
@@ -1749,55 +1749,55 @@
         <v>0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5427426808349773</v>
+        <v>0.5475135239721649</v>
       </c>
       <c r="G19" t="n">
         <v>0.1724137931034483</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4167747117744099</v>
+        <v>0.4059341012535038</v>
       </c>
       <c r="I19" t="n">
-        <v>0.223021582733813</v>
+        <v>0.2158273381294964</v>
       </c>
       <c r="J19" t="n">
-        <v>0.25</v>
+        <v>0.2065217391304348</v>
       </c>
       <c r="K19" t="n">
-        <v>0.169811320754717</v>
+        <v>0.2075471698113208</v>
       </c>
       <c r="L19" t="n">
-        <v>0.125</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2045454545454546</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2111111111111111</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5341033389280962</v>
+        <v>0.526022480118726</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4845102804583973</v>
+        <v>0.4635839899692665</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4570017863133413</v>
+        <v>0.4701131606203359</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3885821443694162</v>
+        <v>0.3467478939905411</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3684616574680006</v>
+        <v>0.3743967250701817</v>
       </c>
       <c r="U19" t="n">
-        <v>0.3966328190135535</v>
+        <v>0.320290502736675</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4284845562872925</v>
+        <v>0.4372973062688927</v>
       </c>
     </row>
     <row r="20">
@@ -1806,35 +1806,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>unifiedQA_large_context_full_pred</t>
+          <t>unifiedQA_base_6_hist_pred</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.4180270719760391</v>
+        <v>0.4722120597916311</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1674757281553398</v>
+        <v>0.2063106796116505</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.25</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6016023729879354</v>
+        <v>0.5434987919322178</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08189655172413793</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2755833800364744</v>
+        <v>0.4175790765911522</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1942446043165468</v>
+        <v>0.223021582733813</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1956521739130435</v>
+        <v>0.25</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2264150943396226</v>
+        <v>0.169811320754717</v>
       </c>
       <c r="L20" t="n">
         <v>0.125</v>
@@ -1843,31 +1843,31 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1222222222222222</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="P20" t="n">
-        <v>0.4647175272958408</v>
+        <v>0.5345159677796719</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.4639494857034842</v>
+        <v>0.4808511093888741</v>
       </c>
       <c r="R20" t="n">
-        <v>0.4244040262245943</v>
+        <v>0.4533374610429514</v>
       </c>
       <c r="S20" t="n">
-        <v>0.3096241830065359</v>
+        <v>0.3928664894942785</v>
       </c>
       <c r="T20" t="n">
-        <v>0.4859568024102485</v>
+        <v>0.3727270230551272</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2878699712251149</v>
+        <v>0.3973897781472366</v>
       </c>
       <c r="V20" t="n">
-        <v>0.3292745511832118</v>
+        <v>0.4274158501745025</v>
       </c>
     </row>
     <row r="21">
@@ -1876,68 +1876,68 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>t5_base_context_SBERT</t>
+          <t>unifiedQA_large_context_full_pred</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.234739930406298</v>
+        <v>0.4170647510751028</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03398058252427184</v>
+        <v>0.1674757281553398</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2955458288123924</v>
+        <v>0.5997937585566573</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01724137931034483</v>
+        <v>0.08189655172413793</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1865493092456033</v>
+        <v>0.2764171352638433</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06474820143884892</v>
+        <v>0.1942446043165468</v>
       </c>
       <c r="J21" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01111111111111111</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="P21" t="n">
-        <v>0.256797908709708</v>
+        <v>0.4673831355725939</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3117005152662198</v>
+        <v>0.4613766731161106</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1910587024629598</v>
+        <v>0.4262210940020834</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1290376834494482</v>
+        <v>0.3173943257858699</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4340442898900083</v>
+        <v>0.4855077026841196</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1953259149567585</v>
+        <v>0.2868042630353664</v>
       </c>
       <c r="V21" t="n">
-        <v>0.152283228048248</v>
+        <v>0.3274516010134718</v>
       </c>
     </row>
     <row r="22">
@@ -1946,68 +1946,138 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>t5_base_context_SBERT</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2340290543013846</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.03398058252427184</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2952835384859845</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01724137931034483</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1877803774893605</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.06474820143884892</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.02272727272727273</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.01111111111111111</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.2581286460882469</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.3102812727421413</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.1905078878031769</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.1303078421692973</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.4338944905861942</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.1967895664472501</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.1518829152501809</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>0_utter_history</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>0.4838067918394378</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C23" t="n">
+        <v>0.482361359765443</v>
+      </c>
+      <c r="D23" t="n">
         <v>0.2184466019417476</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E23" t="n">
         <v>0.2611111111111111</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.5604970112551633</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="F23" t="n">
+        <v>0.5594721184605944</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.1853448275862069</v>
       </c>
-      <c r="H22" t="n">
-        <v>0.4234915266792988</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="H23" t="n">
+        <v>0.4239057361058622</v>
+      </c>
+      <c r="I23" t="n">
         <v>0.2517985611510791</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J23" t="n">
         <v>0.2391304347826087</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K23" t="n">
         <v>0.1886792452830189</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L23" t="n">
         <v>0.125</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>0.1136363636363636</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O23" t="n">
         <v>0.2444444444444444</v>
       </c>
-      <c r="P22" t="n">
-        <v>0.5398439902796487</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.5420642375357894</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.4656849004193541</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.3329898689273689</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.3774669518148157</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.2596620264137152</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0.4458987863197904</v>
+      <c r="P23" t="n">
+        <v>0.5395058193215553</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.5409651729903062</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.4659561144226625</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.332842667952962</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.3770115055392936</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.259778725316651</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.443133837085038</v>
       </c>
     </row>
   </sheetData>
